--- a/metrics/MAPE/Ictus.xlsx
+++ b/metrics/MAPE/Ictus.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02059762833907355</v>
+        <v>0.02107734011372254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02070551910252572</v>
+        <v>0.02021425912045938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02075434842566737</v>
+        <v>0.02065251971872556</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02403771557759566</v>
+        <v>0.02403771557759567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02403771557759568</v>
+        <v>0.0240350996315787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02403509963157868</v>
+        <v>0.02403771557759567</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.121644888335651</v>
+        <v>0.1042252181250347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.120723785405566</v>
+        <v>0.1188057510671667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1066256336003623</v>
+        <v>0.1143316404626366</v>
       </c>
     </row>
   </sheetData>
